--- a/test_file/gen/電動機特性計算表cns.xlsx
+++ b/test_file/gen/電動機特性計算表cns.xlsx
@@ -1393,7 +1393,7 @@
       <c r="B4" s="83" t="n"/>
       <c r="C4" s="84" t="inlineStr">
         <is>
-          <t>123456</t>
+          <t>編號123456</t>
         </is>
       </c>
       <c r="D4" s="85" t="n"/>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="G4" s="86" t="inlineStr">
         <is>
-          <t>S123</t>
+          <t>Ser123</t>
         </is>
       </c>
       <c r="H4" s="83" t="n"/>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="J4" s="86" t="inlineStr">
         <is>
-          <t>T123</t>
+          <t>Type123</t>
         </is>
       </c>
       <c r="K4" s="85" t="n"/>
@@ -1428,7 +1428,11 @@
         </is>
       </c>
       <c r="O4" s="83" t="n"/>
-      <c r="P4" s="87" t="inlineStr"/>
+      <c r="P4" s="87" t="inlineStr">
+        <is>
+          <t>2025-07-30</t>
+        </is>
+      </c>
       <c r="Q4" s="85" t="n"/>
       <c r="R4" s="88" t="n"/>
     </row>
